--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-13T12:41:03+00:00</t>
+    <t>2023-04-13T12:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:07:22+00:00</t>
+    <t>2023-08-04T14:16:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:16:44+00:00</t>
+    <t>2023-08-04T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:18:34+00:00</t>
+    <t>2023-08-04T14:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:25:08+00:00</t>
+    <t>2023-08-04T14:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:26:48+00:00</t>
+    <t>2023-08-04T14:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:40:57+00:00</t>
+    <t>2023-08-04T14:56:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:56:37+00:00</t>
+    <t>2023-08-05T17:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T17:17:54+00:00</t>
+    <t>2023-08-06T13:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/agenda/StructureDefinition/gap-bundle-reponse-demande-consult-dispo</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/gap/StructureDefinition/gap-bundle-reponse-demande-consult-dispo</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T07:57:18+00:00</t>
+    <t>2023-10-10T07:44:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1853,7 +1853,7 @@
     <t>gap-bundle-reponse-demande-consult-rdv</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/agenda/StructureDefinition/gap-bundle-reponse-demande-consult-rdv</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/gap/StructureDefinition/gap-bundle-reponse-demande-consult-rdv</t>
   </si>
   <si>
     <t>GAP_BundleResultatReponseADemandeConsultationRDV</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T07:45:12+00:00</t>
+    <t>2023-10-10T07:48:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T07:48:11+00:00</t>
+    <t>2023-10-10T08:09:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T08:09:40+00:00</t>
+    <t>2023-10-10T12:27:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T12:27:28+00:00</t>
+    <t>2023-10-10T12:29:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T12:29:06+00:00</t>
+    <t>2023-10-10T12:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T10:47:11+00:00</t>
+    <t>2023-12-14T10:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T10:49:50+00:00</t>
+    <t>2023-12-14T11:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28772" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28778" uniqueCount="994">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>GAP_BundleResultatReponseADemandeConsultationDisponibilites</t>
+    <t>GAP-BundleResultatReponseADemandeConsultationDisponibilites</t>
   </si>
   <si>
     <t>Status</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T11:29:24+00:00</t>
+    <t>2024-01-29T14:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Il s’agit de la réponse à la demande de consultation des disponibilités d’une ou de plusieurs ressources. Sur la durée demandée, elle devra contenir les informations sur le temps libre ou occupé de chacune des ressources. La réponse contient donc les disponibilités (Slot) des ressources répondant aux critères de recherche de la demande. Les Slot portant le statut free représentent les disponibilités (status=free). Status=busy pour les indisponibilités correspondant à des rendez-vous pris</t>
+    <t>Profil du bundle de réponse à la demande de consultation des disponibilités d’une ou de plusieurs ressources. Sur la durée demandée, elle devra contenir les informations sur le temps libre ou occupé de chacune des ressources. La réponse contient donc les disponibilités (Slot) des ressources répondant aux critères de recherche de la demande. Les Slot portant le statut free représentent les disponibilités (status=free). Status=busy pour les indisponibilités correspondant à des rendez-vous pris</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1973,7 +1973,10 @@
     <t>GAP_BundleResultatReponseADemandeConsultationRDV</t>
   </si>
   <si>
-    <t>Il s’agit du flux de réponse à la recherche de rendez-vous dans l’agenda d’une ressource. Sur la durée demandée, il devra contenir les informations sur les rendez-vous répondant aux critères de recherche envoyés dans la demande</t>
+    <t>GAP-BundleResultatReponseADemandeConsultationRDV</t>
+  </si>
+  <si>
+    <t>Profil du bundle de réponse à la recherche de rendez-vous dans l’agenda d’une ressource. Sur la durée demandée, il devra contenir les informations sur les rendez-vous répondant aux critères de recherche envoyés dans la demande</t>
   </si>
   <si>
     <t>Bundle.entry:Appointment</t>
@@ -2096,6 +2099,12 @@
   </si>
   <si>
     <t>GAP_FrAppointment</t>
+  </si>
+  <si>
+    <t>GAP-FrAppointment</t>
+  </si>
+  <si>
+    <t>Profil décrivant un rendez-vous médical</t>
   </si>
   <si>
     <t>http://interopsante.org/fhir/StructureDefinition/FrAppointment</t>
@@ -2667,6 +2676,12 @@
     <t>GAP_FrSchedule</t>
   </si>
   <si>
+    <t>GAP-FrSchedule</t>
+  </si>
+  <si>
+    <t>Profil décrivant un agenda médical</t>
+  </si>
+  <si>
     <t>http://interopsante.org/fhir/StructureDefinition/FrSchedule</t>
   </si>
   <si>
@@ -2925,6 +2940,12 @@
   </si>
   <si>
     <t>GAP_FrSlot</t>
+  </si>
+  <si>
+    <t>GAP-FrSlot</t>
+  </si>
+  <si>
+    <t>Profil décrivant un créneau</t>
   </si>
   <si>
     <t>http://interopsante.org/fhir/StructureDefinition/FrSlot</t>
@@ -3420,7 +3441,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="28">
@@ -3474,7 +3495,7 @@
         <v>23</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="35">
@@ -3550,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="45">
@@ -3558,7 +3579,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="46">
@@ -3574,14 +3595,16 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" t="s" s="2">
+        <v>676</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
@@ -3633,7 +3656,9 @@
       <c r="A55" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" t="s" s="2">
+        <v>677</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
@@ -3668,7 +3693,7 @@
         <v>31</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="61">
@@ -3676,7 +3701,7 @@
         <v>33</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="62">
@@ -3708,7 +3733,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="66">
@@ -3716,7 +3741,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="67">
@@ -3732,14 +3757,16 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" t="s" s="2">
+        <v>857</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
@@ -3791,7 +3818,9 @@
       <c r="A76" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" t="s" s="2">
+        <v>858</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
@@ -3834,7 +3863,7 @@
         <v>33</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="83">
@@ -3866,7 +3895,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
     </row>
     <row r="87">
@@ -3874,7 +3903,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>937</v>
+        <v>942</v>
       </c>
     </row>
     <row r="88">
@@ -3890,14 +3919,16 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>938</v>
+        <v>943</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B90" s="2"/>
+      <c r="B90" t="s" s="2">
+        <v>944</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
@@ -3949,7 +3980,9 @@
       <c r="A97" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B97" s="2"/>
+      <c r="B97" t="s" s="2">
+        <v>945</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
@@ -3992,7 +4025,7 @@
         <v>33</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>939</v>
+        <v>946</v>
       </c>
     </row>
     <row r="104">
@@ -47623,13 +47656,13 @@
         <v>631</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C417" t="s" s="2">
         <v>171</v>
       </c>
       <c r="D417" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E417" t="s" s="2">
         <v>75</v>
@@ -47728,7 +47761,7 @@
         <v>631</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C418" t="s" s="2">
         <v>176</v>
@@ -47831,7 +47864,7 @@
         <v>631</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C419" t="s" s="2">
         <v>177</v>
@@ -47936,7 +47969,7 @@
         <v>631</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C420" t="s" s="2">
         <v>178</v>
@@ -48043,7 +48076,7 @@
         <v>631</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C421" t="s" s="2">
         <v>179</v>
@@ -48146,7 +48179,7 @@
         <v>631</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C422" t="s" s="2">
         <v>182</v>
@@ -48251,7 +48284,7 @@
         <v>631</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C423" t="s" s="2">
         <v>186</v>
@@ -48277,13 +48310,13 @@
         <v>75</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O423" s="2"/>
       <c r="P423" s="2"/>
@@ -48346,7 +48379,7 @@
         <v>75</v>
       </c>
       <c r="AK423" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="424">
@@ -48354,7 +48387,7 @@
         <v>631</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C424" t="s" s="2">
         <v>190</v>
@@ -48457,7 +48490,7 @@
         <v>631</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C425" t="s" s="2">
         <v>194</v>
@@ -48560,7 +48593,7 @@
         <v>631</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C426" t="s" s="2">
         <v>195</v>
@@ -48665,7 +48698,7 @@
         <v>631</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C427" t="s" s="2">
         <v>196</v>
@@ -48772,7 +48805,7 @@
         <v>631</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C428" t="s" s="2">
         <v>197</v>
@@ -48877,7 +48910,7 @@
         <v>631</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C429" t="s" s="2">
         <v>203</v>
@@ -48982,7 +49015,7 @@
         <v>631</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C430" t="s" s="2">
         <v>208</v>
@@ -49085,7 +49118,7 @@
         <v>631</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C431" t="s" s="2">
         <v>212</v>
@@ -49188,7 +49221,7 @@
         <v>631</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C432" t="s" s="2">
         <v>213</v>
@@ -49293,7 +49326,7 @@
         <v>631</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C433" t="s" s="2">
         <v>214</v>
@@ -49400,7 +49433,7 @@
         <v>631</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C434" t="s" s="2">
         <v>215</v>
@@ -49505,7 +49538,7 @@
         <v>631</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C435" t="s" s="2">
         <v>220</v>
@@ -49610,7 +49643,7 @@
         <v>631</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C436" t="s" s="2">
         <v>224</v>
@@ -49715,7 +49748,7 @@
         <v>631</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C437" t="s" s="2">
         <v>227</v>
@@ -49820,7 +49853,7 @@
         <v>631</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C438" t="s" s="2">
         <v>230</v>
@@ -49925,7 +49958,7 @@
         <v>631</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C439" t="s" s="2">
         <v>233</v>
@@ -50030,7 +50063,7 @@
         <v>631</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C440" t="s" s="2">
         <v>236</v>
@@ -50133,7 +50166,7 @@
         <v>631</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C441" t="s" s="2">
         <v>240</v>
@@ -50236,7 +50269,7 @@
         <v>631</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C442" t="s" s="2">
         <v>241</v>
@@ -50341,7 +50374,7 @@
         <v>631</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C443" t="s" s="2">
         <v>242</v>
@@ -50448,7 +50481,7 @@
         <v>631</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C444" t="s" s="2">
         <v>243</v>
@@ -50553,7 +50586,7 @@
         <v>631</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C445" t="s" s="2">
         <v>246</v>
@@ -50658,7 +50691,7 @@
         <v>631</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C446" t="s" s="2">
         <v>249</v>
@@ -50763,7 +50796,7 @@
         <v>631</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C447" t="s" s="2">
         <v>253</v>
@@ -50868,7 +50901,7 @@
         <v>631</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C448" t="s" s="2">
         <v>257</v>
@@ -84577,13 +84610,13 @@
     </row>
     <row r="770">
       <c r="A770" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B770" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C770" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D770" s="2"/>
       <c r="E770" t="s" s="2">
@@ -84609,10 +84642,10 @@
         <v>78</v>
       </c>
       <c r="M770" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N770" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O770" s="2"/>
       <c r="P770" s="2"/>
@@ -84663,7 +84696,7 @@
         <v>75</v>
       </c>
       <c r="AG770" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AH770" t="s" s="2">
         <v>76</v>
@@ -84675,18 +84708,18 @@
         <v>75</v>
       </c>
       <c r="AK770" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B771" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C771" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D771" s="2"/>
       <c r="E771" t="s" s="2">
@@ -84785,13 +84818,13 @@
     </row>
     <row r="772">
       <c r="A772" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B772" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C772" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D772" s="2"/>
       <c r="E772" t="s" s="2">
@@ -84888,13 +84921,13 @@
     </row>
     <row r="773">
       <c r="A773" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B773" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C773" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="D773" s="2"/>
       <c r="E773" t="s" s="2">
@@ -84993,13 +85026,13 @@
     </row>
     <row r="774">
       <c r="A774" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B774" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C774" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D774" s="2"/>
       <c r="E774" t="s" s="2">
@@ -85098,17 +85131,17 @@
     </row>
     <row r="775">
       <c r="A775" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B775" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C775" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D775" s="2"/>
       <c r="E775" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="F775" s="2"/>
       <c r="G775" t="s" s="2">
@@ -85127,16 +85160,16 @@
         <v>75</v>
       </c>
       <c r="L775" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="M775" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="N775" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="O775" t="s" s="2">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="P775" s="2"/>
       <c r="Q775" t="s" s="2">
@@ -85186,7 +85219,7 @@
         <v>75</v>
       </c>
       <c r="AG775" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="AH775" t="s" s="2">
         <v>76</v>
@@ -85203,17 +85236,17 @@
     </row>
     <row r="776">
       <c r="A776" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B776" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C776" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="D776" s="2"/>
       <c r="E776" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F776" s="2"/>
       <c r="G776" t="s" s="2">
@@ -85235,13 +85268,13 @@
         <v>187</v>
       </c>
       <c r="M776" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="N776" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="O776" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="P776" s="2"/>
       <c r="Q776" t="s" s="2">
@@ -85291,7 +85324,7 @@
         <v>75</v>
       </c>
       <c r="AG776" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AH776" t="s" s="2">
         <v>76</v>
@@ -85308,13 +85341,13 @@
     </row>
     <row r="777">
       <c r="A777" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B777" t="s" s="2">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C777" t="s" s="2">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D777" s="2"/>
       <c r="E777" t="s" s="2">
@@ -85343,7 +85376,7 @@
         <v>149</v>
       </c>
       <c r="N777" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="O777" t="s" s="2">
         <v>151</v>
@@ -85396,7 +85429,7 @@
         <v>154</v>
       </c>
       <c r="AG777" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="AH777" t="s" s="2">
         <v>76</v>
@@ -85413,16 +85446,16 @@
     </row>
     <row r="778">
       <c r="A778" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B778" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="C778" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="C778" t="s" s="2">
-        <v>693</v>
-      </c>
       <c r="D778" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="E778" t="s" s="2">
         <v>147</v>
@@ -85444,13 +85477,13 @@
         <v>75</v>
       </c>
       <c r="L778" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="M778" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="N778" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="O778" t="s" s="2">
         <v>151</v>
@@ -85503,7 +85536,7 @@
         <v>75</v>
       </c>
       <c r="AG778" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="AH778" t="s" s="2">
         <v>76</v>
@@ -85520,13 +85553,13 @@
     </row>
     <row r="779">
       <c r="A779" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B779" t="s" s="2">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C779" t="s" s="2">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D779" s="2"/>
       <c r="E779" t="s" s="2">
@@ -85623,13 +85656,13 @@
     </row>
     <row r="780">
       <c r="A780" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B780" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C780" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D780" s="2"/>
       <c r="E780" t="s" s="2">
@@ -85728,13 +85761,13 @@
     </row>
     <row r="781">
       <c r="A781" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B781" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C781" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="D781" s="2"/>
       <c r="E781" t="s" s="2">
@@ -85760,13 +85793,13 @@
         <v>98</v>
       </c>
       <c r="M781" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="N781" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="O781" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="P781" s="2"/>
       <c r="Q781" t="s" s="2">
@@ -85774,7 +85807,7 @@
       </c>
       <c r="R781" s="2"/>
       <c r="S781" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="T781" t="s" s="2">
         <v>75</v>
@@ -85816,7 +85849,7 @@
         <v>75</v>
       </c>
       <c r="AG781" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="AH781" t="s" s="2">
         <v>83</v>
@@ -85833,13 +85866,13 @@
     </row>
     <row r="782">
       <c r="A782" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B782" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C782" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="D782" s="2"/>
       <c r="E782" t="s" s="2">
@@ -85862,13 +85895,13 @@
         <v>75</v>
       </c>
       <c r="L782" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="M782" t="s" s="2">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="N782" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="O782" s="2"/>
       <c r="P782" s="2"/>
@@ -85907,7 +85940,7 @@
         <v>75</v>
       </c>
       <c r="AC782" t="s" s="2">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="AD782" s="2"/>
       <c r="AE782" t="s" s="2">
@@ -85917,7 +85950,7 @@
         <v>154</v>
       </c>
       <c r="AG782" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="AH782" t="s" s="2">
         <v>76</v>
@@ -85934,16 +85967,16 @@
     </row>
     <row r="783">
       <c r="A783" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B783" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C783" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="D783" t="s" s="2">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E783" t="s" s="2">
         <v>75</v>
@@ -85965,13 +85998,13 @@
         <v>75</v>
       </c>
       <c r="L783" t="s" s="2">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="M783" t="s" s="2">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="N783" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="O783" s="2"/>
       <c r="P783" s="2"/>
@@ -86022,7 +86055,7 @@
         <v>75</v>
       </c>
       <c r="AG783" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="AH783" t="s" s="2">
         <v>76</v>
@@ -86039,13 +86072,13 @@
     </row>
     <row r="784">
       <c r="A784" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B784" t="s" s="2">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C784" t="s" s="2">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D784" s="2"/>
       <c r="E784" t="s" s="2">
@@ -86071,10 +86104,10 @@
         <v>148</v>
       </c>
       <c r="M784" t="s" s="2">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="N784" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="O784" t="s" s="2">
         <v>151</v>
@@ -86129,7 +86162,7 @@
         <v>154</v>
       </c>
       <c r="AG784" t="s" s="2">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="AH784" t="s" s="2">
         <v>76</v>
@@ -86146,13 +86179,13 @@
     </row>
     <row r="785">
       <c r="A785" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B785" t="s" s="2">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C785" t="s" s="2">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="D785" s="2"/>
       <c r="E785" t="s" s="2">
@@ -86178,10 +86211,10 @@
         <v>113</v>
       </c>
       <c r="M785" t="s" s="2">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="N785" t="s" s="2">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="O785" s="2"/>
       <c r="P785" s="2"/>
@@ -86232,7 +86265,7 @@
         <v>75</v>
       </c>
       <c r="AG785" t="s" s="2">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="AH785" t="s" s="2">
         <v>76</v>
@@ -86249,13 +86282,13 @@
     </row>
     <row r="786">
       <c r="A786" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B786" t="s" s="2">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C786" t="s" s="2">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D786" s="2"/>
       <c r="E786" t="s" s="2">
@@ -86281,13 +86314,13 @@
         <v>104</v>
       </c>
       <c r="M786" t="s" s="2">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="N786" t="s" s="2">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="O786" t="s" s="2">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="P786" s="2"/>
       <c r="Q786" t="s" s="2">
@@ -86316,10 +86349,10 @@
         <v>122</v>
       </c>
       <c r="Z786" t="s" s="2">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="AA786" t="s" s="2">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="AB786" t="s" s="2">
         <v>75</v>
@@ -86337,7 +86370,7 @@
         <v>75</v>
       </c>
       <c r="AG786" t="s" s="2">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="AH786" t="s" s="2">
         <v>83</v>
@@ -86354,13 +86387,13 @@
     </row>
     <row r="787">
       <c r="A787" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B787" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C787" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D787" s="2"/>
       <c r="E787" t="s" s="2">
@@ -86383,16 +86416,16 @@
         <v>84</v>
       </c>
       <c r="L787" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M787" t="s" s="2">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="N787" t="s" s="2">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="O787" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="P787" s="2"/>
       <c r="Q787" t="s" s="2">
@@ -86418,11 +86451,11 @@
         <v>75</v>
       </c>
       <c r="Y787" t="s" s="2">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="Z787" s="2"/>
       <c r="AA787" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="AB787" t="s" s="2">
         <v>75</v>
@@ -86440,7 +86473,7 @@
         <v>75</v>
       </c>
       <c r="AG787" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="AH787" t="s" s="2">
         <v>76</v>
@@ -86457,13 +86490,13 @@
     </row>
     <row r="788">
       <c r="A788" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B788" t="s" s="2">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C788" t="s" s="2">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D788" s="2"/>
       <c r="E788" t="s" s="2">
@@ -86486,16 +86519,16 @@
         <v>84</v>
       </c>
       <c r="L788" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M788" t="s" s="2">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="N788" t="s" s="2">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="O788" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="P788" s="2"/>
       <c r="Q788" t="s" s="2">
@@ -86521,29 +86554,29 @@
         <v>75</v>
       </c>
       <c r="Y788" t="s" s="2">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="Z788" s="2"/>
       <c r="AA788" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="AB788" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC788" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD788" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE788" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF788" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG788" t="s" s="2">
         <v>745</v>
-      </c>
-      <c r="AB788" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC788" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD788" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE788" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF788" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG788" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="AH788" t="s" s="2">
         <v>76</v>
@@ -86560,13 +86593,13 @@
     </row>
     <row r="789">
       <c r="A789" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B789" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C789" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D789" s="2"/>
       <c r="E789" t="s" s="2">
@@ -86589,16 +86622,16 @@
         <v>84</v>
       </c>
       <c r="L789" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M789" t="s" s="2">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="N789" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="O789" t="s" s="2">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="P789" s="2"/>
       <c r="Q789" t="s" s="2">
@@ -86624,11 +86657,11 @@
         <v>75</v>
       </c>
       <c r="Y789" t="s" s="2">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="Z789" s="2"/>
       <c r="AA789" t="s" s="2">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="AB789" t="s" s="2">
         <v>75</v>
@@ -86646,7 +86679,7 @@
         <v>75</v>
       </c>
       <c r="AG789" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="AH789" t="s" s="2">
         <v>76</v>
@@ -86663,13 +86696,13 @@
     </row>
     <row r="790">
       <c r="A790" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B790" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C790" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="D790" s="2"/>
       <c r="E790" t="s" s="2">
@@ -86692,16 +86725,16 @@
         <v>84</v>
       </c>
       <c r="L790" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M790" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="N790" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="O790" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="P790" s="2"/>
       <c r="Q790" t="s" s="2">
@@ -86731,25 +86764,25 @@
       </c>
       <c r="Z790" s="2"/>
       <c r="AA790" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="AB790" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC790" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD790" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE790" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF790" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG790" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="AB790" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC790" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD790" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE790" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF790" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG790" t="s" s="2">
-        <v>751</v>
       </c>
       <c r="AH790" t="s" s="2">
         <v>76</v>
@@ -86766,13 +86799,13 @@
     </row>
     <row r="791">
       <c r="A791" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B791" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C791" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="D791" s="2"/>
       <c r="E791" t="s" s="2">
@@ -86795,16 +86828,16 @@
         <v>84</v>
       </c>
       <c r="L791" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M791" t="s" s="2">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="N791" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="O791" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="P791" s="2"/>
       <c r="Q791" t="s" s="2">
@@ -86834,25 +86867,25 @@
       </c>
       <c r="Z791" s="2"/>
       <c r="AA791" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="AB791" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC791" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD791" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE791" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF791" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG791" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="AB791" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC791" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD791" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE791" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF791" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG791" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="AH791" t="s" s="2">
         <v>76</v>
@@ -86869,13 +86902,13 @@
     </row>
     <row r="792">
       <c r="A792" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B792" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C792" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="D792" s="2"/>
       <c r="E792" t="s" s="2">
@@ -86898,16 +86931,16 @@
         <v>84</v>
       </c>
       <c r="L792" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M792" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="N792" t="s" s="2">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="O792" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="P792" s="2"/>
       <c r="Q792" t="s" s="2">
@@ -86936,28 +86969,28 @@
         <v>108</v>
       </c>
       <c r="Z792" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="AA792" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="AB792" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC792" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD792" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE792" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF792" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG792" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="AA792" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="AB792" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC792" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD792" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE792" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF792" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG792" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="AH792" t="s" s="2">
         <v>76</v>
@@ -86974,13 +87007,13 @@
     </row>
     <row r="793">
       <c r="A793" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B793" t="s" s="2">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C793" t="s" s="2">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="D793" s="2"/>
       <c r="E793" t="s" s="2">
@@ -87003,16 +87036,16 @@
         <v>75</v>
       </c>
       <c r="L793" t="s" s="2">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="M793" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="N793" t="s" s="2">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="O793" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="P793" s="2"/>
       <c r="Q793" t="s" s="2">
@@ -87062,7 +87095,7 @@
         <v>75</v>
       </c>
       <c r="AG793" t="s" s="2">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="AH793" t="s" s="2">
         <v>76</v>
@@ -87074,18 +87107,18 @@
         <v>95</v>
       </c>
       <c r="AK793" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B794" t="s" s="2">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C794" t="s" s="2">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D794" s="2"/>
       <c r="E794" t="s" s="2">
@@ -87111,13 +87144,13 @@
         <v>131</v>
       </c>
       <c r="M794" t="s" s="2">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="N794" t="s" s="2">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="O794" t="s" s="2">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="P794" s="2"/>
       <c r="Q794" t="s" s="2">
@@ -87167,7 +87200,7 @@
         <v>75</v>
       </c>
       <c r="AG794" t="s" s="2">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="AH794" t="s" s="2">
         <v>76</v>
@@ -87184,13 +87217,13 @@
     </row>
     <row r="795">
       <c r="A795" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B795" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C795" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D795" s="2"/>
       <c r="E795" t="s" s="2">
@@ -87216,10 +87249,10 @@
         <v>142</v>
       </c>
       <c r="M795" t="s" s="2">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="N795" t="s" s="2">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="O795" t="s" s="2">
         <v>166</v>
@@ -87272,7 +87305,7 @@
         <v>75</v>
       </c>
       <c r="AG795" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="AH795" t="s" s="2">
         <v>76</v>
@@ -87289,13 +87322,13 @@
     </row>
     <row r="796">
       <c r="A796" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B796" t="s" s="2">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C796" t="s" s="2">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="D796" s="2"/>
       <c r="E796" t="s" s="2">
@@ -87318,16 +87351,16 @@
         <v>75</v>
       </c>
       <c r="L796" t="s" s="2">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="M796" t="s" s="2">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="N796" t="s" s="2">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="O796" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="P796" s="2"/>
       <c r="Q796" t="s" s="2">
@@ -87377,7 +87410,7 @@
         <v>75</v>
       </c>
       <c r="AG796" t="s" s="2">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="AH796" t="s" s="2">
         <v>76</v>
@@ -87389,18 +87422,18 @@
         <v>95</v>
       </c>
       <c r="AK796" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B797" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C797" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="D797" s="2"/>
       <c r="E797" t="s" s="2">
@@ -87426,10 +87459,10 @@
         <v>126</v>
       </c>
       <c r="M797" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="N797" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="O797" t="s" s="2">
         <v>229</v>
@@ -87482,7 +87515,7 @@
         <v>75</v>
       </c>
       <c r="AG797" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="AH797" t="s" s="2">
         <v>76</v>
@@ -87499,13 +87532,13 @@
     </row>
     <row r="798">
       <c r="A798" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B798" t="s" s="2">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C798" t="s" s="2">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D798" s="2"/>
       <c r="E798" t="s" s="2">
@@ -87531,10 +87564,10 @@
         <v>126</v>
       </c>
       <c r="M798" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="N798" t="s" s="2">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="O798" t="s" s="2">
         <v>229</v>
@@ -87587,7 +87620,7 @@
         <v>75</v>
       </c>
       <c r="AG798" t="s" s="2">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="AH798" t="s" s="2">
         <v>76</v>
@@ -87604,13 +87637,13 @@
     </row>
     <row r="799">
       <c r="A799" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B799" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C799" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="D799" s="2"/>
       <c r="E799" t="s" s="2">
@@ -87633,16 +87666,16 @@
         <v>75</v>
       </c>
       <c r="L799" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="M799" t="s" s="2">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="N799" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="O799" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="P799" s="2"/>
       <c r="Q799" t="s" s="2">
@@ -87692,7 +87725,7 @@
         <v>75</v>
       </c>
       <c r="AG799" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="AH799" t="s" s="2">
         <v>76</v>
@@ -87709,13 +87742,13 @@
     </row>
     <row r="800">
       <c r="A800" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B800" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C800" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D800" s="2"/>
       <c r="E800" t="s" s="2">
@@ -87738,16 +87771,16 @@
         <v>75</v>
       </c>
       <c r="L800" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="M800" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="N800" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="O800" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="P800" s="2"/>
       <c r="Q800" t="s" s="2">
@@ -87797,7 +87830,7 @@
         <v>75</v>
       </c>
       <c r="AG800" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="AH800" t="s" s="2">
         <v>76</v>
@@ -87809,18 +87842,18 @@
         <v>95</v>
       </c>
       <c r="AK800" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B801" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C801" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="D801" s="2"/>
       <c r="E801" t="s" s="2">
@@ -87843,16 +87876,16 @@
         <v>75</v>
       </c>
       <c r="L801" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="M801" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="N801" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="O801" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="P801" s="2"/>
       <c r="Q801" t="s" s="2">
@@ -87902,7 +87935,7 @@
         <v>75</v>
       </c>
       <c r="AG801" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AH801" t="s" s="2">
         <v>76</v>
@@ -87919,13 +87952,13 @@
     </row>
     <row r="802">
       <c r="A802" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B802" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C802" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="D802" s="2"/>
       <c r="E802" t="s" s="2">
@@ -87951,13 +87984,13 @@
         <v>142</v>
       </c>
       <c r="M802" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="N802" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="O802" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="P802" s="2"/>
       <c r="Q802" t="s" s="2">
@@ -88007,7 +88040,7 @@
         <v>75</v>
       </c>
       <c r="AG802" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="AH802" t="s" s="2">
         <v>76</v>
@@ -88024,13 +88057,13 @@
     </row>
     <row r="803">
       <c r="A803" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B803" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C803" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="D803" s="2"/>
       <c r="E803" t="s" s="2">
@@ -88056,10 +88089,10 @@
         <v>142</v>
       </c>
       <c r="M803" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="N803" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="O803" t="s" s="2">
         <v>166</v>
@@ -88112,7 +88145,7 @@
         <v>75</v>
       </c>
       <c r="AG803" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="AH803" t="s" s="2">
         <v>76</v>
@@ -88129,17 +88162,17 @@
     </row>
     <row r="804">
       <c r="A804" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B804" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C804" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="D804" s="2"/>
       <c r="E804" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="F804" s="2"/>
       <c r="G804" t="s" s="2">
@@ -88158,16 +88191,16 @@
         <v>75</v>
       </c>
       <c r="L804" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="M804" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="N804" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="O804" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="P804" s="2"/>
       <c r="Q804" t="s" s="2">
@@ -88217,7 +88250,7 @@
         <v>75</v>
       </c>
       <c r="AG804" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="AH804" t="s" s="2">
         <v>76</v>
@@ -88229,18 +88262,18 @@
         <v>95</v>
       </c>
       <c r="AK804" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B805" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C805" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D805" s="2"/>
       <c r="E805" t="s" s="2">
@@ -88266,10 +88299,10 @@
         <v>137</v>
       </c>
       <c r="M805" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="N805" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="O805" s="2"/>
       <c r="P805" s="2"/>
@@ -88320,7 +88353,7 @@
         <v>75</v>
       </c>
       <c r="AG805" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="AH805" t="s" s="2">
         <v>83</v>
@@ -88332,18 +88365,18 @@
         <v>95</v>
       </c>
       <c r="AK805" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B806" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C806" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D806" s="2"/>
       <c r="E806" t="s" s="2">
@@ -88440,13 +88473,13 @@
     </row>
     <row r="807">
       <c r="A807" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B807" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C807" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D807" s="2"/>
       <c r="E807" t="s" s="2">
@@ -88545,13 +88578,13 @@
     </row>
     <row r="808">
       <c r="A808" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B808" t="s" s="2">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C808" t="s" s="2">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="D808" s="2"/>
       <c r="E808" t="s" s="2">
@@ -88652,13 +88685,13 @@
     </row>
     <row r="809">
       <c r="A809" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B809" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C809" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D809" s="2"/>
       <c r="E809" t="s" s="2">
@@ -88681,16 +88714,16 @@
         <v>84</v>
       </c>
       <c r="L809" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M809" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="N809" t="s" s="2">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="O809" t="s" s="2">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="P809" s="2"/>
       <c r="Q809" t="s" s="2">
@@ -88716,13 +88749,13 @@
         <v>75</v>
       </c>
       <c r="Y809" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="Z809" t="s" s="2">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="AA809" t="s" s="2">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="AB809" t="s" s="2">
         <v>75</v>
@@ -88740,7 +88773,7 @@
         <v>75</v>
       </c>
       <c r="AG809" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="AH809" t="s" s="2">
         <v>76</v>
@@ -88757,13 +88790,13 @@
     </row>
     <row r="810">
       <c r="A810" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B810" t="s" s="2">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C810" t="s" s="2">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D810" s="2"/>
       <c r="E810" t="s" s="2">
@@ -88786,16 +88819,16 @@
         <v>84</v>
       </c>
       <c r="L810" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="M810" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="N810" t="s" s="2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="O810" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="P810" s="2"/>
       <c r="Q810" t="s" s="2">
@@ -88845,7 +88878,7 @@
         <v>75</v>
       </c>
       <c r="AG810" t="s" s="2">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="AH810" t="s" s="2">
         <v>76</v>
@@ -88857,18 +88890,18 @@
         <v>95</v>
       </c>
       <c r="AK810" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B811" t="s" s="2">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C811" t="s" s="2">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="D811" s="2"/>
       <c r="E811" t="s" s="2">
@@ -88894,10 +88927,10 @@
         <v>104</v>
       </c>
       <c r="M811" t="s" s="2">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="N811" t="s" s="2">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="O811" t="s" s="2">
         <v>166</v>
@@ -88929,28 +88962,28 @@
         <v>122</v>
       </c>
       <c r="Z811" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="AA811" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="AB811" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC811" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD811" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE811" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF811" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG811" t="s" s="2">
         <v>834</v>
-      </c>
-      <c r="AA811" t="s" s="2">
-        <v>835</v>
-      </c>
-      <c r="AB811" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC811" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD811" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE811" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF811" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG811" t="s" s="2">
-        <v>831</v>
       </c>
       <c r="AH811" t="s" s="2">
         <v>76</v>
@@ -88967,13 +89000,13 @@
     </row>
     <row r="812">
       <c r="A812" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B812" t="s" s="2">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C812" t="s" s="2">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="D812" s="2"/>
       <c r="E812" t="s" s="2">
@@ -88999,10 +89032,10 @@
         <v>104</v>
       </c>
       <c r="M812" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="N812" t="s" s="2">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="O812" t="s" s="2">
         <v>166</v>
@@ -89034,28 +89067,28 @@
         <v>122</v>
       </c>
       <c r="Z812" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="AA812" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="AB812" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC812" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD812" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE812" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF812" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG812" t="s" s="2">
         <v>839</v>
-      </c>
-      <c r="AA812" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="AB812" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC812" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD812" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE812" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF812" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG812" t="s" s="2">
-        <v>836</v>
       </c>
       <c r="AH812" t="s" s="2">
         <v>83</v>
@@ -89072,13 +89105,13 @@
     </row>
     <row r="813">
       <c r="A813" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B813" t="s" s="2">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C813" t="s" s="2">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D813" s="2"/>
       <c r="E813" t="s" s="2">
@@ -89101,16 +89134,16 @@
         <v>75</v>
       </c>
       <c r="L813" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="M813" t="s" s="2">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="N813" t="s" s="2">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="O813" t="s" s="2">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="P813" s="2"/>
       <c r="Q813" t="s" s="2">
@@ -89160,7 +89193,7 @@
         <v>75</v>
       </c>
       <c r="AG813" t="s" s="2">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="AH813" t="s" s="2">
         <v>76</v>
@@ -89172,18 +89205,18 @@
         <v>95</v>
       </c>
       <c r="AK813" t="s" s="2">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B814" t="s" s="2">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C814" t="s" s="2">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="D814" s="2"/>
       <c r="E814" t="s" s="2">
@@ -89206,16 +89239,16 @@
         <v>75</v>
       </c>
       <c r="L814" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="M814" t="s" s="2">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="N814" t="s" s="2">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="O814" t="s" s="2">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="P814" s="2"/>
       <c r="Q814" t="s" s="2">
@@ -89265,7 +89298,7 @@
         <v>75</v>
       </c>
       <c r="AG814" t="s" s="2">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="AH814" t="s" s="2">
         <v>76</v>
@@ -89277,12 +89310,12 @@
         <v>95</v>
       </c>
       <c r="AK814" t="s" s="2">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B815" t="s" s="2">
         <v>300</v>
@@ -89385,13 +89418,13 @@
     </row>
     <row r="816">
       <c r="A816" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B816" t="s" s="2">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="C816" t="s" s="2">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="D816" s="2"/>
       <c r="E816" t="s" s="2">
@@ -89490,13 +89523,13 @@
     </row>
     <row r="817">
       <c r="A817" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B817" t="s" s="2">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="C817" t="s" s="2">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="D817" s="2"/>
       <c r="E817" t="s" s="2">
@@ -89593,13 +89626,13 @@
     </row>
     <row r="818">
       <c r="A818" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B818" t="s" s="2">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="C818" t="s" s="2">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="D818" s="2"/>
       <c r="E818" t="s" s="2">
@@ -89698,13 +89731,13 @@
     </row>
     <row r="819">
       <c r="A819" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B819" t="s" s="2">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="C819" t="s" s="2">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="D819" s="2"/>
       <c r="E819" t="s" s="2">
@@ -89803,17 +89836,17 @@
     </row>
     <row r="820">
       <c r="A820" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B820" t="s" s="2">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="C820" t="s" s="2">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="D820" s="2"/>
       <c r="E820" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="F820" s="2"/>
       <c r="G820" t="s" s="2">
@@ -89832,16 +89865,16 @@
         <v>75</v>
       </c>
       <c r="L820" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="M820" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="N820" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="O820" t="s" s="2">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="P820" s="2"/>
       <c r="Q820" t="s" s="2">
@@ -89891,7 +89924,7 @@
         <v>75</v>
       </c>
       <c r="AG820" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="AH820" t="s" s="2">
         <v>76</v>
@@ -89908,17 +89941,17 @@
     </row>
     <row r="821">
       <c r="A821" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B821" t="s" s="2">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="C821" t="s" s="2">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="D821" s="2"/>
       <c r="E821" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F821" s="2"/>
       <c r="G821" t="s" s="2">
@@ -89940,13 +89973,13 @@
         <v>187</v>
       </c>
       <c r="M821" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="N821" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="O821" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="P821" s="2"/>
       <c r="Q821" t="s" s="2">
@@ -89996,7 +90029,7 @@
         <v>75</v>
       </c>
       <c r="AG821" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AH821" t="s" s="2">
         <v>76</v>
@@ -90013,13 +90046,13 @@
     </row>
     <row r="822">
       <c r="A822" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B822" t="s" s="2">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="C822" t="s" s="2">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="D822" s="2"/>
       <c r="E822" t="s" s="2">
@@ -90048,7 +90081,7 @@
         <v>149</v>
       </c>
       <c r="N822" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="O822" t="s" s="2">
         <v>151</v>
@@ -90101,7 +90134,7 @@
         <v>154</v>
       </c>
       <c r="AG822" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="AH822" t="s" s="2">
         <v>76</v>
@@ -90118,16 +90151,16 @@
     </row>
     <row r="823">
       <c r="A823" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B823" t="s" s="2">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="C823" t="s" s="2">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="D823" t="s" s="2">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="E823" t="s" s="2">
         <v>147</v>
@@ -90149,13 +90182,13 @@
         <v>75</v>
       </c>
       <c r="L823" t="s" s="2">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="M823" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="N823" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="O823" t="s" s="2">
         <v>151</v>
@@ -90208,7 +90241,7 @@
         <v>75</v>
       </c>
       <c r="AG823" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="AH823" t="s" s="2">
         <v>76</v>
@@ -90225,16 +90258,16 @@
     </row>
     <row r="824">
       <c r="A824" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B824" t="s" s="2">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="C824" t="s" s="2">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="D824" t="s" s="2">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="E824" t="s" s="2">
         <v>147</v>
@@ -90256,13 +90289,13 @@
         <v>75</v>
       </c>
       <c r="L824" t="s" s="2">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="M824" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="N824" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="O824" t="s" s="2">
         <v>151</v>
@@ -90315,7 +90348,7 @@
         <v>75</v>
       </c>
       <c r="AG824" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="AH824" t="s" s="2">
         <v>76</v>
@@ -90332,13 +90365,13 @@
     </row>
     <row r="825">
       <c r="A825" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B825" t="s" s="2">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="C825" t="s" s="2">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="D825" s="2"/>
       <c r="E825" t="s" s="2">
@@ -90364,10 +90397,10 @@
         <v>148</v>
       </c>
       <c r="M825" t="s" s="2">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="N825" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="O825" t="s" s="2">
         <v>151</v>
@@ -90422,7 +90455,7 @@
         <v>154</v>
       </c>
       <c r="AG825" t="s" s="2">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="AH825" t="s" s="2">
         <v>76</v>
@@ -90439,13 +90472,13 @@
     </row>
     <row r="826">
       <c r="A826" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B826" t="s" s="2">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="C826" t="s" s="2">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="D826" s="2"/>
       <c r="E826" t="s" s="2">
@@ -90471,10 +90504,10 @@
         <v>113</v>
       </c>
       <c r="M826" t="s" s="2">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="N826" t="s" s="2">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="O826" s="2"/>
       <c r="P826" s="2"/>
@@ -90525,7 +90558,7 @@
         <v>75</v>
       </c>
       <c r="AG826" t="s" s="2">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="AH826" t="s" s="2">
         <v>76</v>
@@ -90542,13 +90575,13 @@
     </row>
     <row r="827">
       <c r="A827" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B827" t="s" s="2">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="C827" t="s" s="2">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="D827" s="2"/>
       <c r="E827" t="s" s="2">
@@ -90645,13 +90678,13 @@
     </row>
     <row r="828">
       <c r="A828" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B828" t="s" s="2">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="C828" t="s" s="2">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="D828" s="2"/>
       <c r="E828" t="s" s="2">
@@ -90750,13 +90783,13 @@
     </row>
     <row r="829">
       <c r="A829" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B829" t="s" s="2">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C829" t="s" s="2">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="D829" s="2"/>
       <c r="E829" t="s" s="2">
@@ -90782,16 +90815,16 @@
         <v>104</v>
       </c>
       <c r="M829" t="s" s="2">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="N829" t="s" s="2">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="O829" t="s" s="2">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="P829" t="s" s="2">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="Q829" t="s" s="2">
         <v>75</v>
@@ -90819,10 +90852,10 @@
         <v>122</v>
       </c>
       <c r="Z829" t="s" s="2">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="AA829" t="s" s="2">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="AB829" t="s" s="2">
         <v>75</v>
@@ -90840,7 +90873,7 @@
         <v>75</v>
       </c>
       <c r="AG829" t="s" s="2">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="AH829" t="s" s="2">
         <v>76</v>
@@ -90857,13 +90890,13 @@
     </row>
     <row r="830">
       <c r="A830" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B830" t="s" s="2">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="C830" t="s" s="2">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="D830" s="2"/>
       <c r="E830" t="s" s="2">
@@ -90886,19 +90919,19 @@
         <v>84</v>
       </c>
       <c r="L830" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M830" t="s" s="2">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="N830" t="s" s="2">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="O830" t="s" s="2">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="P830" t="s" s="2">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q830" t="s" s="2">
         <v>75</v>
@@ -90923,13 +90956,13 @@
         <v>75</v>
       </c>
       <c r="Y830" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="Z830" t="s" s="2">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="AA830" t="s" s="2">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="AB830" t="s" s="2">
         <v>75</v>
@@ -90947,7 +90980,7 @@
         <v>75</v>
       </c>
       <c r="AG830" t="s" s="2">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="AH830" t="s" s="2">
         <v>76</v>
@@ -90964,13 +90997,13 @@
     </row>
     <row r="831">
       <c r="A831" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B831" t="s" s="2">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="C831" t="s" s="2">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="D831" s="2"/>
       <c r="E831" t="s" s="2">
@@ -90996,16 +91029,16 @@
         <v>98</v>
       </c>
       <c r="M831" t="s" s="2">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="N831" t="s" s="2">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="O831" t="s" s="2">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="P831" t="s" s="2">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="Q831" t="s" s="2">
         <v>75</v>
@@ -91018,7 +91051,7 @@
         <v>75</v>
       </c>
       <c r="U831" t="s" s="2">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="V831" t="s" s="2">
         <v>75</v>
@@ -91054,7 +91087,7 @@
         <v>75</v>
       </c>
       <c r="AG831" t="s" s="2">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="AH831" t="s" s="2">
         <v>76</v>
@@ -91071,13 +91104,13 @@
     </row>
     <row r="832">
       <c r="A832" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B832" t="s" s="2">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="C832" t="s" s="2">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="D832" s="2"/>
       <c r="E832" t="s" s="2">
@@ -91103,13 +91136,13 @@
         <v>142</v>
       </c>
       <c r="M832" t="s" s="2">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="N832" t="s" s="2">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="O832" t="s" s="2">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="P832" s="2"/>
       <c r="Q832" t="s" s="2">
@@ -91123,7 +91156,7 @@
         <v>75</v>
       </c>
       <c r="U832" t="s" s="2">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="V832" t="s" s="2">
         <v>75</v>
@@ -91159,7 +91192,7 @@
         <v>75</v>
       </c>
       <c r="AG832" t="s" s="2">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="AH832" t="s" s="2">
         <v>76</v>
@@ -91176,13 +91209,13 @@
     </row>
     <row r="833">
       <c r="A833" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B833" t="s" s="2">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="C833" t="s" s="2">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="D833" s="2"/>
       <c r="E833" t="s" s="2">
@@ -91205,16 +91238,16 @@
         <v>84</v>
       </c>
       <c r="L833" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="M833" t="s" s="2">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="N833" t="s" s="2">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="O833" t="s" s="2">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="P833" s="2"/>
       <c r="Q833" t="s" s="2">
@@ -91264,7 +91297,7 @@
         <v>75</v>
       </c>
       <c r="AG833" t="s" s="2">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="AH833" t="s" s="2">
         <v>76</v>
@@ -91276,18 +91309,18 @@
         <v>95</v>
       </c>
       <c r="AK833" t="s" s="2">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B834" t="s" s="2">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="C834" t="s" s="2">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="D834" s="2"/>
       <c r="E834" t="s" s="2">
@@ -91310,16 +91343,16 @@
         <v>84</v>
       </c>
       <c r="L834" t="s" s="2">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="M834" t="s" s="2">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="N834" t="s" s="2">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="O834" t="s" s="2">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="P834" s="2"/>
       <c r="Q834" t="s" s="2">
@@ -91369,7 +91402,7 @@
         <v>75</v>
       </c>
       <c r="AG834" t="s" s="2">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="AH834" t="s" s="2">
         <v>76</v>
@@ -91381,18 +91414,18 @@
         <v>95</v>
       </c>
       <c r="AK834" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B835" t="s" s="2">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="C835" t="s" s="2">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="D835" s="2"/>
       <c r="E835" t="s" s="2">
@@ -91415,68 +91448,68 @@
         <v>84</v>
       </c>
       <c r="L835" t="s" s="2">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="M835" t="s" s="2">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="N835" t="s" s="2">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="O835" t="s" s="2">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="P835" s="2"/>
       <c r="Q835" t="s" s="2">
         <v>75</v>
       </c>
       <c r="R835" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="S835" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T835" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U835" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V835" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W835" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X835" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y835" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z835" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA835" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB835" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC835" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD835" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE835" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF835" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG835" t="s" s="2">
         <v>917</v>
-      </c>
-      <c r="S835" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T835" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U835" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V835" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W835" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X835" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y835" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z835" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA835" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB835" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC835" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD835" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE835" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF835" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG835" t="s" s="2">
-        <v>912</v>
       </c>
       <c r="AH835" t="s" s="2">
         <v>76</v>
@@ -91493,13 +91526,13 @@
     </row>
     <row r="836">
       <c r="A836" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B836" t="s" s="2">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="C836" t="s" s="2">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="D836" s="2"/>
       <c r="E836" t="s" s="2">
@@ -91522,16 +91555,16 @@
         <v>84</v>
       </c>
       <c r="L836" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M836" t="s" s="2">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="N836" t="s" s="2">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="O836" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="P836" s="2"/>
       <c r="Q836" t="s" s="2">
@@ -91557,11 +91590,11 @@
         <v>75</v>
       </c>
       <c r="Y836" t="s" s="2">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="Z836" s="2"/>
       <c r="AA836" t="s" s="2">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="AB836" t="s" s="2">
         <v>75</v>
@@ -91579,7 +91612,7 @@
         <v>75</v>
       </c>
       <c r="AG836" t="s" s="2">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="AH836" t="s" s="2">
         <v>76</v>
@@ -91596,13 +91629,13 @@
     </row>
     <row r="837">
       <c r="A837" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B837" t="s" s="2">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="C837" t="s" s="2">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="D837" s="2"/>
       <c r="E837" t="s" s="2">
@@ -91625,16 +91658,16 @@
         <v>84</v>
       </c>
       <c r="L837" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M837" t="s" s="2">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="N837" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="O837" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="P837" s="2"/>
       <c r="Q837" t="s" s="2">
@@ -91660,11 +91693,11 @@
         <v>75</v>
       </c>
       <c r="Y837" t="s" s="2">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="Z837" s="2"/>
       <c r="AA837" t="s" s="2">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="AB837" t="s" s="2">
         <v>75</v>
@@ -91682,7 +91715,7 @@
         <v>75</v>
       </c>
       <c r="AG837" t="s" s="2">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="AH837" t="s" s="2">
         <v>76</v>
@@ -91699,13 +91732,13 @@
     </row>
     <row r="838">
       <c r="A838" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B838" t="s" s="2">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="C838" t="s" s="2">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="D838" s="2"/>
       <c r="E838" t="s" s="2">
@@ -91728,16 +91761,16 @@
         <v>84</v>
       </c>
       <c r="L838" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M838" t="s" s="2">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="N838" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="O838" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="P838" s="2"/>
       <c r="Q838" t="s" s="2">
@@ -91766,10 +91799,10 @@
         <v>122</v>
       </c>
       <c r="Z838" t="s" s="2">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="AA838" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="AB838" t="s" s="2">
         <v>75</v>
@@ -91787,7 +91820,7 @@
         <v>75</v>
       </c>
       <c r="AG838" t="s" s="2">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="AH838" t="s" s="2">
         <v>76</v>
@@ -91804,13 +91837,13 @@
     </row>
     <row r="839">
       <c r="A839" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B839" t="s" s="2">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="C839" t="s" s="2">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="D839" s="2"/>
       <c r="E839" t="s" s="2">
@@ -91833,16 +91866,16 @@
         <v>84</v>
       </c>
       <c r="L839" t="s" s="2">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="M839" t="s" s="2">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="N839" t="s" s="2">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="O839" t="s" s="2">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="P839" s="2"/>
       <c r="Q839" t="s" s="2">
@@ -91892,7 +91925,7 @@
         <v>75</v>
       </c>
       <c r="AG839" t="s" s="2">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="AH839" t="s" s="2">
         <v>83</v>
@@ -91904,18 +91937,18 @@
         <v>95</v>
       </c>
       <c r="AK839" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B840" t="s" s="2">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="C840" t="s" s="2">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="D840" s="2"/>
       <c r="E840" t="s" s="2">
@@ -91938,16 +91971,16 @@
         <v>84</v>
       </c>
       <c r="L840" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="M840" t="s" s="2">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="N840" t="s" s="2">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="O840" t="s" s="2">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="P840" s="2"/>
       <c r="Q840" t="s" s="2">
@@ -91997,7 +92030,7 @@
         <v>75</v>
       </c>
       <c r="AG840" t="s" s="2">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="AH840" t="s" s="2">
         <v>76</v>
@@ -92009,18 +92042,18 @@
         <v>95</v>
       </c>
       <c r="AK840" t="s" s="2">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B841" t="s" s="2">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="C841" t="s" s="2">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="D841" s="2"/>
       <c r="E841" t="s" s="2">
@@ -92046,10 +92079,10 @@
         <v>142</v>
       </c>
       <c r="M841" t="s" s="2">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="N841" t="s" s="2">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="O841" t="s" s="2">
         <v>166</v>
@@ -92102,7 +92135,7 @@
         <v>75</v>
       </c>
       <c r="AG841" t="s" s="2">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="AH841" t="s" s="2">
         <v>76</v>
@@ -92119,7 +92152,7 @@
     </row>
     <row r="842">
       <c r="A842" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B842" t="s" s="2">
         <v>262</v>
@@ -92222,13 +92255,13 @@
     </row>
     <row r="843">
       <c r="A843" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B843" t="s" s="2">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="C843" t="s" s="2">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="D843" s="2"/>
       <c r="E843" t="s" s="2">
@@ -92327,13 +92360,13 @@
     </row>
     <row r="844">
       <c r="A844" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B844" t="s" s="2">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="C844" t="s" s="2">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="D844" s="2"/>
       <c r="E844" t="s" s="2">
@@ -92430,13 +92463,13 @@
     </row>
     <row r="845">
       <c r="A845" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B845" t="s" s="2">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="C845" t="s" s="2">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="D845" s="2"/>
       <c r="E845" t="s" s="2">
@@ -92535,13 +92568,13 @@
     </row>
     <row r="846">
       <c r="A846" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B846" t="s" s="2">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="C846" t="s" s="2">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="D846" s="2"/>
       <c r="E846" t="s" s="2">
@@ -92640,17 +92673,17 @@
     </row>
     <row r="847">
       <c r="A847" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B847" t="s" s="2">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="C847" t="s" s="2">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="D847" s="2"/>
       <c r="E847" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="F847" s="2"/>
       <c r="G847" t="s" s="2">
@@ -92669,16 +92702,16 @@
         <v>75</v>
       </c>
       <c r="L847" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="M847" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="N847" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="O847" t="s" s="2">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="P847" s="2"/>
       <c r="Q847" t="s" s="2">
@@ -92728,7 +92761,7 @@
         <v>75</v>
       </c>
       <c r="AG847" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="AH847" t="s" s="2">
         <v>76</v>
@@ -92745,17 +92778,17 @@
     </row>
     <row r="848">
       <c r="A848" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B848" t="s" s="2">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="C848" t="s" s="2">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="D848" s="2"/>
       <c r="E848" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F848" s="2"/>
       <c r="G848" t="s" s="2">
@@ -92777,13 +92810,13 @@
         <v>187</v>
       </c>
       <c r="M848" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="N848" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="O848" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="P848" s="2"/>
       <c r="Q848" t="s" s="2">
@@ -92833,7 +92866,7 @@
         <v>75</v>
       </c>
       <c r="AG848" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AH848" t="s" s="2">
         <v>76</v>
@@ -92850,13 +92883,13 @@
     </row>
     <row r="849">
       <c r="A849" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B849" t="s" s="2">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="C849" t="s" s="2">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="D849" s="2"/>
       <c r="E849" t="s" s="2">
@@ -92885,7 +92918,7 @@
         <v>149</v>
       </c>
       <c r="N849" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="O849" t="s" s="2">
         <v>151</v>
@@ -92938,7 +92971,7 @@
         <v>154</v>
       </c>
       <c r="AG849" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="AH849" t="s" s="2">
         <v>76</v>
@@ -92955,13 +92988,13 @@
     </row>
     <row r="850">
       <c r="A850" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B850" t="s" s="2">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="C850" t="s" s="2">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="D850" s="2"/>
       <c r="E850" t="s" s="2">
@@ -92987,10 +93020,10 @@
         <v>148</v>
       </c>
       <c r="M850" t="s" s="2">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="N850" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="O850" t="s" s="2">
         <v>151</v>
@@ -93045,7 +93078,7 @@
         <v>154</v>
       </c>
       <c r="AG850" t="s" s="2">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="AH850" t="s" s="2">
         <v>76</v>
@@ -93062,13 +93095,13 @@
     </row>
     <row r="851">
       <c r="A851" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B851" t="s" s="2">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="C851" t="s" s="2">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="D851" s="2"/>
       <c r="E851" t="s" s="2">
@@ -93094,10 +93127,10 @@
         <v>113</v>
       </c>
       <c r="M851" t="s" s="2">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="N851" t="s" s="2">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="O851" s="2"/>
       <c r="P851" s="2"/>
@@ -93148,7 +93181,7 @@
         <v>75</v>
       </c>
       <c r="AG851" t="s" s="2">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="AH851" t="s" s="2">
         <v>76</v>
@@ -93165,13 +93198,13 @@
     </row>
     <row r="852">
       <c r="A852" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B852" t="s" s="2">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="C852" t="s" s="2">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="D852" s="2"/>
       <c r="E852" t="s" s="2">
@@ -93268,13 +93301,13 @@
     </row>
     <row r="853">
       <c r="A853" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B853" t="s" s="2">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="C853" t="s" s="2">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="D853" s="2"/>
       <c r="E853" t="s" s="2">
@@ -93373,13 +93406,13 @@
     </row>
     <row r="854">
       <c r="A854" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B854" t="s" s="2">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="C854" t="s" s="2">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="D854" s="2"/>
       <c r="E854" t="s" s="2">
@@ -93405,16 +93438,16 @@
         <v>104</v>
       </c>
       <c r="M854" t="s" s="2">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="N854" t="s" s="2">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="O854" t="s" s="2">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="P854" t="s" s="2">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="Q854" t="s" s="2">
         <v>75</v>
@@ -93442,10 +93475,10 @@
         <v>122</v>
       </c>
       <c r="Z854" t="s" s="2">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="AA854" t="s" s="2">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="AB854" t="s" s="2">
         <v>75</v>
@@ -93463,7 +93496,7 @@
         <v>75</v>
       </c>
       <c r="AG854" t="s" s="2">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="AH854" t="s" s="2">
         <v>76</v>
@@ -93480,13 +93513,13 @@
     </row>
     <row r="855">
       <c r="A855" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B855" t="s" s="2">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="C855" t="s" s="2">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="D855" s="2"/>
       <c r="E855" t="s" s="2">
@@ -93509,19 +93542,19 @@
         <v>84</v>
       </c>
       <c r="L855" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M855" t="s" s="2">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="N855" t="s" s="2">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="O855" t="s" s="2">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="P855" t="s" s="2">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="Q855" t="s" s="2">
         <v>75</v>
@@ -93546,13 +93579,13 @@
         <v>75</v>
       </c>
       <c r="Y855" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="Z855" t="s" s="2">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="AA855" t="s" s="2">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="AB855" t="s" s="2">
         <v>75</v>
@@ -93570,7 +93603,7 @@
         <v>75</v>
       </c>
       <c r="AG855" t="s" s="2">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="AH855" t="s" s="2">
         <v>76</v>
@@ -93587,13 +93620,13 @@
     </row>
     <row r="856">
       <c r="A856" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B856" t="s" s="2">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="C856" t="s" s="2">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="D856" s="2"/>
       <c r="E856" t="s" s="2">
@@ -93619,16 +93652,16 @@
         <v>98</v>
       </c>
       <c r="M856" t="s" s="2">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="N856" t="s" s="2">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="O856" t="s" s="2">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="P856" t="s" s="2">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="Q856" t="s" s="2">
         <v>75</v>
@@ -93641,7 +93674,7 @@
         <v>75</v>
       </c>
       <c r="U856" t="s" s="2">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="V856" t="s" s="2">
         <v>75</v>
@@ -93677,7 +93710,7 @@
         <v>75</v>
       </c>
       <c r="AG856" t="s" s="2">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="AH856" t="s" s="2">
         <v>76</v>
@@ -93694,13 +93727,13 @@
     </row>
     <row r="857">
       <c r="A857" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B857" t="s" s="2">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="C857" t="s" s="2">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="D857" s="2"/>
       <c r="E857" t="s" s="2">
@@ -93726,13 +93759,13 @@
         <v>142</v>
       </c>
       <c r="M857" t="s" s="2">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="N857" t="s" s="2">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="O857" t="s" s="2">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="P857" s="2"/>
       <c r="Q857" t="s" s="2">
@@ -93746,7 +93779,7 @@
         <v>75</v>
       </c>
       <c r="U857" t="s" s="2">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="V857" t="s" s="2">
         <v>75</v>
@@ -93782,7 +93815,7 @@
         <v>75</v>
       </c>
       <c r="AG857" t="s" s="2">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="AH857" t="s" s="2">
         <v>76</v>
@@ -93799,13 +93832,13 @@
     </row>
     <row r="858">
       <c r="A858" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B858" t="s" s="2">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="C858" t="s" s="2">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="D858" s="2"/>
       <c r="E858" t="s" s="2">
@@ -93828,16 +93861,16 @@
         <v>84</v>
       </c>
       <c r="L858" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="M858" t="s" s="2">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="N858" t="s" s="2">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="O858" t="s" s="2">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="P858" s="2"/>
       <c r="Q858" t="s" s="2">
@@ -93887,7 +93920,7 @@
         <v>75</v>
       </c>
       <c r="AG858" t="s" s="2">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="AH858" t="s" s="2">
         <v>76</v>
@@ -93899,18 +93932,18 @@
         <v>95</v>
       </c>
       <c r="AK858" t="s" s="2">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B859" t="s" s="2">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="C859" t="s" s="2">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="D859" s="2"/>
       <c r="E859" t="s" s="2">
@@ -93933,16 +93966,16 @@
         <v>84</v>
       </c>
       <c r="L859" t="s" s="2">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="M859" t="s" s="2">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="N859" t="s" s="2">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="O859" t="s" s="2">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="P859" s="2"/>
       <c r="Q859" t="s" s="2">
@@ -93992,7 +94025,7 @@
         <v>75</v>
       </c>
       <c r="AG859" t="s" s="2">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="AH859" t="s" s="2">
         <v>76</v>
@@ -94004,18 +94037,18 @@
         <v>95</v>
       </c>
       <c r="AK859" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B860" t="s" s="2">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="C860" t="s" s="2">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="D860" s="2"/>
       <c r="E860" t="s" s="2">
@@ -94038,16 +94071,16 @@
         <v>84</v>
       </c>
       <c r="L860" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M860" t="s" s="2">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="N860" t="s" s="2">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="O860" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="P860" s="2"/>
       <c r="Q860" t="s" s="2">
@@ -94073,11 +94106,11 @@
         <v>75</v>
       </c>
       <c r="Y860" t="s" s="2">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="Z860" s="2"/>
       <c r="AA860" t="s" s="2">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="AB860" t="s" s="2">
         <v>75</v>
@@ -94095,7 +94128,7 @@
         <v>75</v>
       </c>
       <c r="AG860" t="s" s="2">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="AH860" t="s" s="2">
         <v>76</v>
@@ -94112,13 +94145,13 @@
     </row>
     <row r="861">
       <c r="A861" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B861" t="s" s="2">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="C861" t="s" s="2">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="D861" s="2"/>
       <c r="E861" t="s" s="2">
@@ -94141,16 +94174,16 @@
         <v>84</v>
       </c>
       <c r="L861" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M861" t="s" s="2">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="N861" t="s" s="2">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="O861" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="P861" s="2"/>
       <c r="Q861" t="s" s="2">
@@ -94176,11 +94209,11 @@
         <v>75</v>
       </c>
       <c r="Y861" t="s" s="2">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="Z861" s="2"/>
       <c r="AA861" t="s" s="2">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="AB861" t="s" s="2">
         <v>75</v>
@@ -94198,7 +94231,7 @@
         <v>75</v>
       </c>
       <c r="AG861" t="s" s="2">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="AH861" t="s" s="2">
         <v>76</v>
@@ -94215,13 +94248,13 @@
     </row>
     <row r="862">
       <c r="A862" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B862" t="s" s="2">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="C862" t="s" s="2">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="D862" s="2"/>
       <c r="E862" t="s" s="2">
@@ -94244,16 +94277,16 @@
         <v>84</v>
       </c>
       <c r="L862" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M862" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="N862" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="O862" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="P862" s="2"/>
       <c r="Q862" t="s" s="2">
@@ -94282,10 +94315,10 @@
         <v>122</v>
       </c>
       <c r="Z862" t="s" s="2">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="AA862" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="AB862" t="s" s="2">
         <v>75</v>
@@ -94303,7 +94336,7 @@
         <v>75</v>
       </c>
       <c r="AG862" t="s" s="2">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="AH862" t="s" s="2">
         <v>76</v>
@@ -94320,13 +94353,13 @@
     </row>
     <row r="863">
       <c r="A863" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B863" t="s" s="2">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="C863" t="s" s="2">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="D863" s="2"/>
       <c r="E863" t="s" s="2">
@@ -94349,16 +94382,16 @@
         <v>84</v>
       </c>
       <c r="L863" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M863" t="s" s="2">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="N863" t="s" s="2">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="O863" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="P863" s="2"/>
       <c r="Q863" t="s" s="2">
@@ -94388,7 +94421,7 @@
       </c>
       <c r="Z863" s="2"/>
       <c r="AA863" t="s" s="2">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="AB863" t="s" s="2">
         <v>75</v>
@@ -94406,7 +94439,7 @@
         <v>75</v>
       </c>
       <c r="AG863" t="s" s="2">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="AH863" t="s" s="2">
         <v>76</v>
@@ -94423,13 +94456,13 @@
     </row>
     <row r="864">
       <c r="A864" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B864" t="s" s="2">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="C864" t="s" s="2">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="D864" s="2"/>
       <c r="E864" t="s" s="2">
@@ -94452,16 +94485,16 @@
         <v>84</v>
       </c>
       <c r="L864" t="s" s="2">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="M864" t="s" s="2">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="N864" t="s" s="2">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="O864" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="P864" s="2"/>
       <c r="Q864" t="s" s="2">
@@ -94511,7 +94544,7 @@
         <v>75</v>
       </c>
       <c r="AG864" t="s" s="2">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="AH864" t="s" s="2">
         <v>83</v>
@@ -94523,18 +94556,18 @@
         <v>95</v>
       </c>
       <c r="AK864" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B865" t="s" s="2">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="C865" t="s" s="2">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="D865" s="2"/>
       <c r="E865" t="s" s="2">
@@ -94560,10 +94593,10 @@
         <v>104</v>
       </c>
       <c r="M865" t="s" s="2">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="N865" t="s" s="2">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="O865" t="s" s="2">
         <v>166</v>
@@ -94595,10 +94628,10 @@
         <v>122</v>
       </c>
       <c r="Z865" t="s" s="2">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="AA865" t="s" s="2">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="AB865" t="s" s="2">
         <v>75</v>
@@ -94616,7 +94649,7 @@
         <v>75</v>
       </c>
       <c r="AG865" t="s" s="2">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="AH865" t="s" s="2">
         <v>83</v>
@@ -94633,13 +94666,13 @@
     </row>
     <row r="866">
       <c r="A866" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B866" t="s" s="2">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="C866" t="s" s="2">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="D866" s="2"/>
       <c r="E866" t="s" s="2">
@@ -94665,10 +94698,10 @@
         <v>126</v>
       </c>
       <c r="M866" t="s" s="2">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="N866" t="s" s="2">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="O866" t="s" s="2">
         <v>229</v>
@@ -94721,7 +94754,7 @@
         <v>75</v>
       </c>
       <c r="AG866" t="s" s="2">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="AH866" t="s" s="2">
         <v>83</v>
@@ -94738,13 +94771,13 @@
     </row>
     <row r="867">
       <c r="A867" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B867" t="s" s="2">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="C867" t="s" s="2">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="D867" s="2"/>
       <c r="E867" t="s" s="2">
@@ -94770,10 +94803,10 @@
         <v>126</v>
       </c>
       <c r="M867" t="s" s="2">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="N867" t="s" s="2">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="O867" t="s" s="2">
         <v>229</v>
@@ -94826,7 +94859,7 @@
         <v>75</v>
       </c>
       <c r="AG867" t="s" s="2">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="AH867" t="s" s="2">
         <v>83</v>
@@ -94843,13 +94876,13 @@
     </row>
     <row r="868">
       <c r="A868" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B868" t="s" s="2">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="C868" t="s" s="2">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="D868" s="2"/>
       <c r="E868" t="s" s="2">
@@ -94872,13 +94905,13 @@
         <v>75</v>
       </c>
       <c r="L868" t="s" s="2">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="M868" t="s" s="2">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="N868" t="s" s="2">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="O868" s="2"/>
       <c r="P868" s="2"/>
@@ -94886,7 +94919,7 @@
         <v>75</v>
       </c>
       <c r="R868" t="s" s="2">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="S868" t="s" s="2">
         <v>75</v>
@@ -94931,7 +94964,7 @@
         <v>75</v>
       </c>
       <c r="AG868" t="s" s="2">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="AH868" t="s" s="2">
         <v>76</v>
@@ -94948,13 +94981,13 @@
     </row>
     <row r="869">
       <c r="A869" t="s" s="2">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B869" t="s" s="2">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="C869" t="s" s="2">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="D869" s="2"/>
       <c r="E869" t="s" s="2">
@@ -94980,10 +95013,10 @@
         <v>142</v>
       </c>
       <c r="M869" t="s" s="2">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="N869" t="s" s="2">
-        <v>986</v>
+        <v>993</v>
       </c>
       <c r="O869" t="s" s="2">
         <v>166</v>
@@ -95036,7 +95069,7 @@
         <v>75</v>
       </c>
       <c r="AG869" t="s" s="2">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="AH869" t="s" s="2">
         <v>76</v>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T14:34:40+00:00</t>
+    <t>2024-01-29T14:50:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T14:50:33+00:00</t>
+    <t>2024-01-29T15:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:53:44+00:00</t>
+    <t>2024-01-30T10:04:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T10:04:16+00:00</t>
+    <t>2024-01-30T12:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T12:40:14+00:00</t>
+    <t>2024-01-30T13:16:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T15:58:41+00:00</t>
+    <t>2024-01-30T16:37:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T18:16:20+00:00</t>
+    <t>2024-01-31T07:58:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T13:22:28+00:00</t>
+    <t>2024-01-31T13:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T13:43:28+00:00</t>
+    <t>2024-01-31T13:44:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T13:44:35+00:00</t>
+    <t>2024-01-31T13:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T12:47:51+00:00</t>
+    <t>2024-02-05T14:04:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T14:04:11+00:00</t>
+    <t>2024-02-05T16:13:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T16:13:13+00:00</t>
+    <t>2024-02-05T16:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T16:17:14+00:00</t>
+    <t>2024-02-06T08:08:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T08:14:18+00:00</t>
+    <t>2024-02-11T15:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T15:35:33+00:00</t>
+    <t>2024-02-15T16:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:56:09+00:00</t>
+    <t>2024-02-23T13:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
